--- a/kiwi_data.xlsx
+++ b/kiwi_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1703E2AB-0EEE-437A-9428-C19D78BB2CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2446847F-2C6B-45BB-B3A4-00FB06F238C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2078,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2165,6 +2165,44 @@
         <v>960</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>940</v>
+      </c>
+      <c r="C12">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>940</v>
+      </c>
+      <c r="C13">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>940</v>
+      </c>
+      <c r="C14">
+        <v>940</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kiwi_data.xlsx
+++ b/kiwi_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2446847F-2C6B-45BB-B3A4-00FB06F238C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A0B8AC-0F7E-49B9-BB72-9DF761942E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2078,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2203,6 +2203,44 @@
         <v>940</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44970</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>850</v>
+      </c>
+      <c r="C17">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>780</v>
+      </c>
+      <c r="C18">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>720</v>
+      </c>
+      <c r="C19">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kiwi_data.xlsx
+++ b/kiwi_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A0B8AC-0F7E-49B9-BB72-9DF761942E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE38537C-909D-4851-9578-9C8C80C2883C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2021,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B75375E-0FBF-42A3-9D05-8661C0FB4478}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2070,6 +2070,44 @@
         <v>940</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>67</v>
+      </c>
+      <c r="B7">
+        <v>400</v>
+      </c>
+      <c r="C7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>940</v>
+      </c>
+      <c r="C8">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>960</v>
+      </c>
+      <c r="C9">
+        <v>940</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2078,10 +2116,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2194,7 +2232,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>940</v>
@@ -2239,6 +2277,120 @@
       </c>
       <c r="C19">
         <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>660</v>
+      </c>
+      <c r="C22">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>660</v>
+      </c>
+      <c r="C23">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+      <c r="C24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>940</v>
+      </c>
+      <c r="C27">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>440</v>
+      </c>
+      <c r="C29">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+      <c r="C32">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>500</v>
+      </c>
+      <c r="C34">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/kiwi_data.xlsx
+++ b/kiwi_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE38537C-909D-4851-9578-9C8C80C2883C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C85328-9D6A-469E-9D8F-AD5025FE3468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2116,10 +2116,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2393,6 +2393,44 @@
         <v>260</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>940</v>
+      </c>
+      <c r="C38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>380</v>
+      </c>
+      <c r="C39">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kiwi_data.xlsx
+++ b/kiwi_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C85328-9D6A-469E-9D8F-AD5025FE3468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D03A16A-6B54-4C88-A045-F1B713A51E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2021,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B75375E-0FBF-42A3-9D05-8661C0FB4478}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2108,6 +2108,44 @@
         <v>940</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>73</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>74</v>
+      </c>
+      <c r="B13">
+        <v>940</v>
+      </c>
+      <c r="C13">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2116,10 +2154,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2431,6 +2469,82 @@
         <v>400</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+      <c r="C42">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43">
+        <v>220</v>
+      </c>
+      <c r="C43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>36</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44982</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>38</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>39</v>
+      </c>
+      <c r="B48">
+        <v>220</v>
+      </c>
+      <c r="C48">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>40</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kiwi_data.xlsx
+++ b/kiwi_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D03A16A-6B54-4C88-A045-F1B713A51E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A409FC6-6D44-47CA-93CB-4DFCCFEA7019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="冷库" sheetId="1" r:id="rId1"/>
@@ -1212,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1476,7 @@
         <v>50.19</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>47.27</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>48.29</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>47.38</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1508,15 +1508,18 @@
         <v>46.79</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
       <c r="B37">
         <v>45.83</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>49.13</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -1532,7 +1535,7 @@
         <v>48.79</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -1540,476 +1543,653 @@
         <v>47.78</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
       <c r="B41">
         <v>48.52</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>47.91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
       <c r="B42">
         <v>44.19</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>43.89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
       <c r="B43">
         <v>43.44</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>43.86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
       <c r="B44">
         <v>50.19</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>47.91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
       <c r="B45">
         <v>43.95</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>43.23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
       <c r="B46">
         <v>46.52</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>45.97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
       <c r="B47">
         <v>50.53</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>49.55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
       <c r="B48">
         <v>50.98</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
       <c r="B49">
         <v>50.96</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>49.74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
       <c r="B50">
         <v>43.43</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>42.17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
       <c r="B51">
         <v>48.87</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>47.97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
       <c r="B52">
         <v>49.85</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>49.67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
       <c r="B53">
         <v>45.73</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>45.96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
       <c r="B54">
         <v>48.61</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>47.78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
       <c r="B55">
         <v>47.53</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>47.17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
       <c r="B56">
         <v>46.56</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>45.53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
       <c r="B57">
         <v>48.57</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>47.23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
       <c r="B58">
         <v>47.14</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>46.65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
       <c r="B59">
         <v>42.58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>42.71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
       <c r="B60">
         <v>47.05</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>46.56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
       <c r="B61">
         <v>49.77</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>48.09</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
       <c r="B62">
         <v>47.84</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
       <c r="B63">
         <v>48.96</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>48.41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
       <c r="B64">
         <v>47.06</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>46.63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
       <c r="B65">
         <v>42.93</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>42.06</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
       <c r="B66">
         <v>46.05</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>45.49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
       <c r="B67">
         <v>46.35</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>46.29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
       <c r="B68">
         <v>50.54</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>49.71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
       <c r="B69">
         <v>48.52</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>47.05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
       <c r="B70">
         <v>44.93</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>44.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
       <c r="B71">
         <v>46.07</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>45.12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>72</v>
       </c>
       <c r="B72">
         <v>48.95</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>48.34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
       <c r="B73">
         <v>46.77</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>47.09</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
       <c r="B74">
         <v>50.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>50.05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
       <c r="B75">
         <v>49.95</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>49.44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
       <c r="B76">
         <v>48.21</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>48.61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
       <c r="B77">
         <v>48.08</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>47.83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
       <c r="B78">
         <v>50.03</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>50.06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
       <c r="B79">
         <v>46.47</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>46.04</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
       <c r="B80">
         <v>46.81</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>45.77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
       <c r="B81">
         <v>49.34</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>49.06</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
       <c r="B82">
         <v>48.12</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
       <c r="B83">
         <v>48.19</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>47.17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
       <c r="B84">
         <v>48.85</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>48.06</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
       <c r="B85">
         <v>49.62</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>48.48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
       <c r="B86">
         <v>48.43</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>48.11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
       <c r="B87">
         <v>51.12</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
       <c r="B88">
         <v>48.39</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>48.83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
       <c r="B89">
         <v>50.06</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>49.26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
       <c r="B90">
         <v>48.85</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>48.42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
       <c r="B91">
         <v>45.62</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>45.38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
       <c r="B92">
         <v>51.14</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>49.56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
       <c r="B93">
         <v>45.48</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>44.59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>94</v>
       </c>
       <c r="B94">
         <v>48.52</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>47.59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
       <c r="B95">
         <v>46.31</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>45.41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>96</v>
       </c>
       <c r="B96">
         <v>50.94</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>50.35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>97</v>
       </c>
       <c r="B97">
         <v>47.94</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>47.26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>98</v>
       </c>
       <c r="B98">
         <v>48.32</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>47.23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>99</v>
       </c>
       <c r="B99">
         <v>52.78</v>
+      </c>
+      <c r="C99">
+        <v>51.67</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +2336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>

--- a/kiwi_data.xlsx
+++ b/kiwi_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A409FC6-6D44-47CA-93CB-4DFCCFEA7019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE425BF3-9223-4E53-AE3E-9E45674D201E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="冷库" sheetId="1" r:id="rId1"/>
@@ -1214,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
@@ -2201,10 +2201,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B75375E-0FBF-42A3-9D05-8661C0FB4478}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2324,6 +2324,44 @@
       </c>
       <c r="C14">
         <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>76</v>
+      </c>
+      <c r="B17">
+        <v>400</v>
+      </c>
+      <c r="C17">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>77</v>
+      </c>
+      <c r="B18">
+        <v>720</v>
+      </c>
+      <c r="C18">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>78</v>
+      </c>
+      <c r="B19">
+        <v>400</v>
+      </c>
+      <c r="C19">
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/kiwi_data.xlsx
+++ b/kiwi_data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE425BF3-9223-4E53-AE3E-9E45674D201E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B841465-8E8E-4FA9-9641-389D3C892A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2201,10 +2201,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B75375E-0FBF-42A3-9D05-8661C0FB4478}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2362,6 +2362,44 @@
       </c>
       <c r="C19">
         <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>80</v>
+      </c>
+      <c r="B22">
+        <v>880</v>
+      </c>
+      <c r="C22">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>81</v>
+      </c>
+      <c r="B23">
+        <v>140</v>
+      </c>
+      <c r="C23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>82</v>
+      </c>
+      <c r="B24">
+        <v>520</v>
+      </c>
+      <c r="C24">
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/kiwi_data.xlsx
+++ b/kiwi_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B841465-8E8E-4FA9-9641-389D3C892A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB6553F-DADD-4D4E-91C4-CDD6BC4A334E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2201,10 +2201,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B75375E-0FBF-42A3-9D05-8661C0FB4478}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2400,6 +2400,44 @@
       </c>
       <c r="C24">
         <v>540</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>83</v>
+      </c>
+      <c r="B27">
+        <v>740</v>
+      </c>
+      <c r="C27">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>84</v>
+      </c>
+      <c r="B28">
+        <v>720</v>
+      </c>
+      <c r="C28">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>85</v>
+      </c>
+      <c r="B29">
+        <v>280</v>
+      </c>
+      <c r="C29">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/kiwi_data.xlsx
+++ b/kiwi_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB6553F-DADD-4D4E-91C4-CDD6BC4A334E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62683AA0-B003-46BB-8B61-9A4CDEC63B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="冷库" sheetId="1" r:id="rId1"/>
@@ -403,543 +403,741 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
         <v>48.43</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>50.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
         <v>47.61</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
         <v>47.39</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
         <v>50.49</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
         <v>49.14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
         <v>47.63</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
         <v>44.49</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
         <v>48.21</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10">
         <v>49.87</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11">
         <v>45.57</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12">
         <v>49.69</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13">
         <v>48.32</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14">
         <v>51.03</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15">
         <v>48.27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16">
         <v>48.05</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17">
         <v>46.66</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18">
         <v>50.16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19">
         <v>45.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20">
         <v>50.57</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21">
         <v>50.97</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22">
         <v>49.79</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23">
         <v>49.95</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24">
         <v>47.08</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25">
         <v>48.42</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26">
         <v>51.09</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27">
         <v>49.78</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28">
         <v>44.88</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29">
         <v>46.74</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30">
         <v>50.18</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31">
         <v>47.06</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32">
         <v>46.7</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
       <c r="B33">
         <v>49.63</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
       <c r="B34">
         <v>48.84</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
       <c r="B35">
         <v>47.67</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
       <c r="B36">
         <v>48.46</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
       <c r="B37">
         <v>46.51</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
       <c r="B38">
         <v>49.93</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
       <c r="B39">
         <v>47.03</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
       <c r="B40">
         <v>49.81</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
       <c r="B41">
         <v>50.42</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
       <c r="B42">
         <v>52.17</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
       <c r="B43">
         <v>46.75</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
       <c r="B44">
         <v>52.03</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
       <c r="B45">
         <v>49.31</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
       <c r="B46">
         <v>51.97</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
       <c r="B47">
         <v>49.05</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
       <c r="B48">
         <v>50.53</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
       <c r="B49">
         <v>51.21</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
       <c r="B50">
         <v>47.71</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
       <c r="B51">
         <v>49.01</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
       <c r="B52">
         <v>44.31</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
       <c r="B53">
         <v>49.31</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
       <c r="B54">
         <v>50.71</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
       <c r="B55">
         <v>50.06</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
       <c r="B56">
         <v>47.91</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
       <c r="B57">
         <v>49.28</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
       <c r="B58">
         <v>52.52</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
       <c r="B59">
         <v>51.02</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
       <c r="B60">
         <v>45.53</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
       <c r="B61">
         <v>49.61</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
       <c r="B62">
         <v>46.08</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
       <c r="B63">
         <v>49.81</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
       <c r="B64">
         <v>45.44</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
       <c r="B65">
         <v>46.21</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
       <c r="B66">
         <v>49.99</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -947,7 +1145,7 @@
         <v>51.64</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -955,7 +1153,7 @@
         <v>48.09</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -963,7 +1161,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
@@ -971,7 +1169,7 @@
         <v>46.73</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
@@ -979,7 +1177,7 @@
         <v>50.98</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>72</v>
       </c>
@@ -987,7 +1185,7 @@
         <v>51.04</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
@@ -995,7 +1193,7 @@
         <v>47.75</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
@@ -1003,7 +1201,7 @@
         <v>51.33</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
@@ -1011,7 +1209,7 @@
         <v>49.83</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
@@ -1019,7 +1217,7 @@
         <v>52.01</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
@@ -1027,7 +1225,7 @@
         <v>47.97</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
@@ -1035,7 +1233,7 @@
         <v>53.05</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
@@ -1043,7 +1241,7 @@
         <v>52.83</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -1051,7 +1249,7 @@
         <v>47.65</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
@@ -1059,7 +1257,7 @@
         <v>47.86</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
@@ -1067,7 +1265,7 @@
         <v>50.98</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
@@ -1075,7 +1273,7 @@
         <v>47.87</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
@@ -1083,7 +1281,7 @@
         <v>48.27</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
@@ -1091,7 +1289,7 @@
         <v>54.17</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
@@ -1099,7 +1297,7 @@
         <v>43.67</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
@@ -1107,7 +1305,7 @@
         <v>44.58</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
@@ -1115,92 +1313,125 @@
         <v>48.87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
       <c r="B89">
         <v>47.84</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
       <c r="B90">
         <v>50.03</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
       <c r="B91">
         <v>49.38</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
       <c r="B92">
         <v>47.42</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
       <c r="B93">
         <v>49.39</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>94</v>
       </c>
       <c r="B94">
         <v>52.93</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
       <c r="B95">
         <v>49.34</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>96</v>
       </c>
       <c r="B96">
         <v>47.98</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>97</v>
       </c>
       <c r="B97">
         <v>48.23</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>98</v>
       </c>
       <c r="B98">
         <v>46.73</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>99</v>
       </c>
       <c r="B99">
         <v>48.77</v>
+      </c>
+      <c r="C99">
+        <v>48.2</v>
       </c>
     </row>
   </sheetData>
@@ -2201,10 +2432,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B75375E-0FBF-42A3-9D05-8661C0FB4478}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2438,6 +2669,44 @@
       </c>
       <c r="C29">
         <v>480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>86</v>
+      </c>
+      <c r="B32">
+        <v>660</v>
+      </c>
+      <c r="C32">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>87</v>
+      </c>
+      <c r="B33">
+        <v>800</v>
+      </c>
+      <c r="C33">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>88</v>
+      </c>
+      <c r="B34">
+        <v>460</v>
+      </c>
+      <c r="C34">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
